--- a/DATASHEETbackup.xlsx
+++ b/DATASHEETbackup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emanuel Camacho\Documents\Est-gio-ANAC-Emanuel-Camacho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAA1431-269D-482D-A703-B4A1B3C012CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB9918C-43AE-4834-A915-8534EF1774C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12555" yWindow="2760" windowWidth="12510" windowHeight="8820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fixed" sheetId="2" r:id="rId1"/>
@@ -471,15 +471,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -502,8 +502,12 @@
       <c r="G1">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <f>0.051*0.081</f>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -526,8 +530,12 @@
       <c r="G2">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f t="shared" ref="H2:H19" si="1">0.051*0.081</f>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -551,8 +559,12 @@
       <c r="G3">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -575,8 +587,12 @@
       <c r="G4">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -599,8 +615,12 @@
       <c r="G5">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -624,8 +644,12 @@
       <c r="G6">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -648,8 +672,12 @@
       <c r="G7">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -672,8 +700,12 @@
       <c r="G8">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -696,8 +728,12 @@
       <c r="G9">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -720,8 +756,12 @@
       <c r="G10">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -744,8 +784,12 @@
       <c r="G11">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -768,8 +812,12 @@
       <c r="G12">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -793,8 +841,12 @@
       <c r="G13">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -818,8 +870,12 @@
       <c r="G14">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -844,8 +900,12 @@
       <c r="G15">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -869,8 +929,12 @@
       <c r="G16">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -894,8 +958,12 @@
       <c r="G17">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -919,8 +987,12 @@
       <c r="G18">
         <v>6.3454999999999998E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -942,6 +1014,10 @@
       </c>
       <c r="G19">
         <v>6.3454999999999998E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>4.1310000000000001E-3</v>
       </c>
     </row>
   </sheetData>
